--- a/ir.xlsx
+++ b/ir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,48 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>this is a test2 for app</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test11</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>this is a test11 for app</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test11</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>this is a test11 for app</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>test22</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>this is a test22 for app</t>
+          <t>this is test</t>
         </is>
       </c>
     </row>
